--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf1</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.4079038744453333</v>
+        <v>0.2163921979496667</v>
       </c>
       <c r="R2">
-        <v>3.671134870008</v>
+        <v>1.947529781547</v>
       </c>
       <c r="S2">
-        <v>0.03976933369619661</v>
+        <v>0.02863408090035047</v>
       </c>
       <c r="T2">
-        <v>0.03976933369619663</v>
+        <v>0.02863408090035047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>2.226990374070333</v>
+        <v>0.8844438622156667</v>
       </c>
       <c r="R3">
-        <v>20.042913366633</v>
+        <v>7.959994759941</v>
       </c>
       <c r="S3">
-        <v>0.2171244964148785</v>
+        <v>0.1170339658382348</v>
       </c>
       <c r="T3">
-        <v>0.2171244964148785</v>
+        <v>0.1170339658382348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.04847846173366666</v>
+        <v>0.031744231568</v>
       </c>
       <c r="R4">
-        <v>0.436306155603</v>
+        <v>0.285698084112</v>
       </c>
       <c r="S4">
-        <v>0.004726496222636076</v>
+        <v>0.004200552993361613</v>
       </c>
       <c r="T4">
-        <v>0.004726496222636077</v>
+        <v>0.004200552993361614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6681369999999999</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H5">
-        <v>2.004411</v>
+        <v>3.010202</v>
       </c>
       <c r="I5">
-        <v>0.2616527449564177</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J5">
-        <v>0.2616527449564178</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>0.0003325095136666666</v>
+        <v>0.8182735781335555</v>
       </c>
       <c r="R5">
-        <v>0.002992585623</v>
+        <v>7.364462203201999</v>
       </c>
       <c r="S5">
-        <v>3.241862270651693E-05</v>
+        <v>0.1082779881017035</v>
       </c>
       <c r="T5">
-        <v>3.241862270651694E-05</v>
+        <v>0.1082779881017035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +791,10 @@
         <v>3.010202</v>
       </c>
       <c r="I6">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J6">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>0.6125854720728888</v>
+        <v>3.344469212156223</v>
       </c>
       <c r="R6">
-        <v>5.513269248655999</v>
+        <v>30.100222909406</v>
       </c>
       <c r="S6">
-        <v>0.05972514011894688</v>
+        <v>0.4425566304931567</v>
       </c>
       <c r="T6">
-        <v>0.0597251401189469</v>
+        <v>0.4425566304931567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>3.344469212156223</v>
+        <v>0.1200388285546667</v>
       </c>
       <c r="R7">
-        <v>30.100222909406</v>
+        <v>1.080349456992</v>
       </c>
       <c r="S7">
-        <v>0.3260751379617554</v>
+        <v>0.01588412872823227</v>
       </c>
       <c r="T7">
-        <v>0.3260751379617555</v>
+        <v>0.01588412872823227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.003400666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H8">
-        <v>3.010202</v>
+        <v>1.437208</v>
       </c>
       <c r="I8">
-        <v>0.3929471631183917</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J8">
-        <v>0.3929471631183917</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07255766666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N8">
-        <v>0.217673</v>
+        <v>2.446501</v>
       </c>
       <c r="O8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q8">
-        <v>0.07280441110511111</v>
+        <v>0.3906812010231111</v>
       </c>
       <c r="R8">
-        <v>0.655239699946</v>
+        <v>3.516130809208</v>
       </c>
       <c r="S8">
-        <v>0.007098199113041966</v>
+        <v>0.05169685978670969</v>
       </c>
       <c r="T8">
-        <v>0.007098199113041968</v>
+        <v>0.0516968597867097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.003400666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H9">
-        <v>3.010202</v>
+        <v>1.437208</v>
       </c>
       <c r="I9">
-        <v>0.3929471631183917</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J9">
-        <v>0.3929471631183917</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0004976666666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N9">
-        <v>0.001493</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001238994175731531</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P9">
-        <v>0.0001238994175731531</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q9">
-        <v>0.0004993590651111111</v>
+        <v>1.596802442980444</v>
       </c>
       <c r="R9">
-        <v>0.004494231585999999</v>
+        <v>14.371221986824</v>
       </c>
       <c r="S9">
-        <v>4.868592464739152E-05</v>
+        <v>0.2112967600838112</v>
       </c>
       <c r="T9">
-        <v>4.868592464739153E-05</v>
+        <v>0.2112967600838113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H10">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I10">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J10">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6105093333333333</v>
+        <v>0.119632</v>
       </c>
       <c r="N10">
-        <v>1.831528</v>
+        <v>0.358896</v>
       </c>
       <c r="O10">
-        <v>0.1519928013857481</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P10">
-        <v>0.1519928013857482</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q10">
-        <v>0.01222382137511111</v>
+        <v>0.05731202248533333</v>
       </c>
       <c r="R10">
-        <v>0.110014392376</v>
+        <v>0.515808202368</v>
       </c>
       <c r="S10">
-        <v>0.001191783804384152</v>
+        <v>0.00758380895409851</v>
       </c>
       <c r="T10">
-        <v>0.001191783804384152</v>
+        <v>0.007583808954098511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02002233333333333</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H11">
-        <v>0.060067</v>
+        <v>0.068176</v>
       </c>
       <c r="I11">
-        <v>0.007841054270455084</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J11">
-        <v>0.007841054270455085</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.333134333333334</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N11">
-        <v>9.999403000000001</v>
+        <v>2.446501</v>
       </c>
       <c r="O11">
-        <v>0.8298192952305694</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P11">
-        <v>0.8298192952305695</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q11">
-        <v>0.06673712666677778</v>
+        <v>0.01853251690844445</v>
       </c>
       <c r="R11">
-        <v>0.600634140001</v>
+        <v>0.166792652176</v>
       </c>
       <c r="S11">
-        <v>0.006506658128573684</v>
+        <v>0.002452313870239186</v>
       </c>
       <c r="T11">
-        <v>0.006506658128573687</v>
+        <v>0.002452313870239187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.02002233333333333</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H12">
-        <v>0.060067</v>
+        <v>0.068176</v>
       </c>
       <c r="I12">
-        <v>0.007841054270455084</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J12">
-        <v>0.007841054270455085</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07255766666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N12">
-        <v>0.217673</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O12">
-        <v>0.01806400396610915</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P12">
-        <v>0.01806400396610915</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q12">
-        <v>0.001452773787888889</v>
+        <v>0.07574658876977779</v>
       </c>
       <c r="R12">
-        <v>0.013074964091</v>
+        <v>0.6817192989280001</v>
       </c>
       <c r="S12">
-        <v>0.0001416408354399777</v>
+        <v>0.01002316151557319</v>
       </c>
       <c r="T12">
-        <v>0.0001416408354399778</v>
+        <v>0.01002316151557319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,294 +1219,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.02002233333333333</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H13">
-        <v>0.060067</v>
+        <v>0.068176</v>
       </c>
       <c r="I13">
-        <v>0.007841054270455084</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J13">
-        <v>0.007841054270455085</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0004976666666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N13">
-        <v>0.001493</v>
+        <v>0.358896</v>
       </c>
       <c r="O13">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P13">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q13">
-        <v>9.964447888888888E-06</v>
+        <v>0.002718677077333333</v>
       </c>
       <c r="R13">
-        <v>8.968003099999999E-05</v>
+        <v>0.024468093696</v>
       </c>
       <c r="S13">
-        <v>9.715020572688699E-07</v>
+        <v>0.000359748734528767</v>
       </c>
       <c r="T13">
-        <v>9.715020572688702E-07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.8619656666666667</v>
-      </c>
-      <c r="H14">
-        <v>2.585897</v>
-      </c>
-      <c r="I14">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="J14">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.6105093333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.831528</v>
-      </c>
-      <c r="O14">
-        <v>0.1519928013857481</v>
-      </c>
-      <c r="P14">
-        <v>0.1519928013857482</v>
-      </c>
-      <c r="Q14">
-        <v>0.5262380845128889</v>
-      </c>
-      <c r="R14">
-        <v>4.736142760616</v>
-      </c>
-      <c r="S14">
-        <v>0.05130654376622048</v>
-      </c>
-      <c r="T14">
-        <v>0.05130654376622049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.8619656666666667</v>
-      </c>
-      <c r="H15">
-        <v>2.585897</v>
-      </c>
-      <c r="I15">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="J15">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.333134333333334</v>
-      </c>
-      <c r="N15">
-        <v>9.999403000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.8298192952305694</v>
-      </c>
-      <c r="P15">
-        <v>0.8298192952305695</v>
-      </c>
-      <c r="Q15">
-        <v>2.873047357721223</v>
-      </c>
-      <c r="R15">
-        <v>25.857426219491</v>
-      </c>
-      <c r="S15">
-        <v>0.2801130027253618</v>
-      </c>
-      <c r="T15">
-        <v>0.2801130027253618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.8619656666666667</v>
-      </c>
-      <c r="H16">
-        <v>2.585897</v>
-      </c>
-      <c r="I16">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="J16">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.07255766666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.217673</v>
-      </c>
-      <c r="O16">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="P16">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="Q16">
-        <v>0.06254221752011112</v>
-      </c>
-      <c r="R16">
-        <v>0.5628799576810001</v>
-      </c>
-      <c r="S16">
-        <v>0.006097667794991129</v>
-      </c>
-      <c r="T16">
-        <v>0.00609766779499113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.8619656666666667</v>
-      </c>
-      <c r="H17">
-        <v>2.585897</v>
-      </c>
-      <c r="I17">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="J17">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.001493</v>
-      </c>
-      <c r="O17">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P17">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q17">
-        <v>0.0004289715801111112</v>
-      </c>
-      <c r="R17">
-        <v>0.003860744221</v>
-      </c>
-      <c r="S17">
-        <v>4.182336816197579E-05</v>
-      </c>
-      <c r="T17">
-        <v>4.182336816197579E-05</v>
+        <v>0.000359748734528767</v>
       </c>
     </row>
   </sheetData>
